--- a/medicine/Handicap/Syndrome_de_Silver-Russell/Syndrome_de_Silver-Russell.xlsx
+++ b/medicine/Handicap/Syndrome_de_Silver-Russell/Syndrome_de_Silver-Russell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Décrit pour la première fois en 1953[2],[3], le syndrome de Silver-Russell (SSR) associe un retard de croissance commençant en période fœtale et se continuant en période postnatale. La taille et le poids à la naissance se situent en dessous du cinquième centile. Les enfants atteints ont un nanisme harmonieux, un périmètre crânien normal, une clinodactylie du cinquième doigt, un dymorphisme facial avec très souvent une asymétrie de croissance d'un hémi-corps. Ces enfants ont une augmentation du risque de retard de développement avec des capacités d'apprentissages réduites.
+Décrit pour la première fois en 1953 le syndrome de Silver-Russell (SSR) associe un retard de croissance commençant en période fœtale et se continuant en période postnatale. La taille et le poids à la naissance se situent en dessous du cinquième centile. Les enfants atteints ont un nanisme harmonieux, un périmètre crânien normal, une clinodactylie du cinquième doigt, un dymorphisme facial avec très souvent une asymétrie de croissance d'un hémi-corps. Ces enfants ont une augmentation du risque de retard de développement avec des capacités d'apprentissages réduites.
 Ce syndrome est plus un phénotype qu'une maladie génétiquement homogène. Le diagnostic repose essentiellement sur les signes cliniques: une petite taille avec un périmètre crânien normal. L'enquête génétique sera normale dans 40 % des individus atteint par ce syndrome
 </t>
         </is>
@@ -513,13 +525,15 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les causes génétiques du syndrome de Russell-Silver sont complexes. Le trouble résulte souvent de la régulation anormale de certains gènes qui contrôlent la croissance. La recherche s'est concentrée sur les gènes situés dans des régions particulières du chromosome 7 et du chromosome 11. Les gens héritent normalement d'une copie de chaque chromosome de leur mère et d'une copie de leur père. Pour la plupart des gènes, les deux copies sont exprimées ou «activées» dans les cellules. Pour certains gènes, cependant, seule la copie héritée du père d'une personne (la copie paternelle) est exprimée. Pour les autres gènes, seule la copie héritée de la mère d'une personne (la copie maternelle) est exprimée[4].
-Ces différences d'expression génique propres aux parents sont causées par un phénomène appelé empreinte génomique. Le chromosome 7 et le chromosome 11 contiennent tous deux des groupes de gènes qui subissent normalement une empreinte génomique; certains de ces gènes ne sont actifs que sur la copie maternelle du chromosome, tandis que d'autres ne sont actifs que sur la copie paternelle. Les anomalies impliquant ces gènes semblent être responsables de nombreux cas de syndrome de Russell-Silver[4]..
-Les chercheurs soupçonnent que 30 à 50 % de tous les cas de syndrome de Russell-Silver résultent de changements dans un processus appelé méthylation sur le bras court (p) du chromosome 11 en position 15 (11p15). La méthylation est une réaction chimique qui attache de petites molécules appelées groupes méthyle à certains segments de l'ADN. Dans les gènes qui subissent une empreinte génomique, la méthylation est une façon dont le parent d'origine d'un gène est marqué pendant la formation des ovules et des spermatozoïdes. Le syndrome de Russell-Silver a été associé à des changements de méthylation impliquant les gènes H19 et IGF2, qui sont situés les uns à côté des autres à 11p15. On pense que ces gènes sont impliqués dans la direction d'une croissance normale. Une perte de méthylation perturbe la régulation de ces gènes, ce qui entraîne une croissance lente et les autres caractéristiques de ce trouble[4]..
-Des anomalies impliquant des gènes sur le chromosome 7 peuvent également provoquer le syndrome de Russell-Silver. Dans 7 à 10 % des cas, les gens héritent des deux copies du chromosome 7 de leur mère au lieu d'une copie de chaque parent. Ce phénomène est appelé disomie uniparentale maternelle (UPD). L'UPD maternelle fait que les gens ont deux copies actives de certains gènes imprimés et aucune copie active d'autres. Un déséquilibre de certains gènes paternels et maternels actifs sur le chromosome 7 sous-tend les signes et symptômes de la maladie.Chez environ 40% des personnes atteintes du syndrome de Russell-Silver, la cause de la maladie est inconnue. Il est probable que des changements impliquant des gènes imprimés sur des chromosomes autres que 7 et 11 jouent un rôle[4].
-L'hypométhylation de la région de contrôle 1 et 2 (gène H19) au niveau de situé 11p15,5 provoque une SSR chez 35 à 50 % des individus, et une disomie uniparentale maternelle  chromosome 7 humain[5]. provoque une SRS chez 7 à 10 % des individus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les causes génétiques du syndrome de Russell-Silver sont complexes. Le trouble résulte souvent de la régulation anormale de certains gènes qui contrôlent la croissance. La recherche s'est concentrée sur les gènes situés dans des régions particulières du chromosome 7 et du chromosome 11. Les gens héritent normalement d'une copie de chaque chromosome de leur mère et d'une copie de leur père. Pour la plupart des gènes, les deux copies sont exprimées ou «activées» dans les cellules. Pour certains gènes, cependant, seule la copie héritée du père d'une personne (la copie paternelle) est exprimée. Pour les autres gènes, seule la copie héritée de la mère d'une personne (la copie maternelle) est exprimée.
+Ces différences d'expression génique propres aux parents sont causées par un phénomène appelé empreinte génomique. Le chromosome 7 et le chromosome 11 contiennent tous deux des groupes de gènes qui subissent normalement une empreinte génomique; certains de ces gènes ne sont actifs que sur la copie maternelle du chromosome, tandis que d'autres ne sont actifs que sur la copie paternelle. Les anomalies impliquant ces gènes semblent être responsables de nombreux cas de syndrome de Russell-Silver..
+Les chercheurs soupçonnent que 30 à 50 % de tous les cas de syndrome de Russell-Silver résultent de changements dans un processus appelé méthylation sur le bras court (p) du chromosome 11 en position 15 (11p15). La méthylation est une réaction chimique qui attache de petites molécules appelées groupes méthyle à certains segments de l'ADN. Dans les gènes qui subissent une empreinte génomique, la méthylation est une façon dont le parent d'origine d'un gène est marqué pendant la formation des ovules et des spermatozoïdes. Le syndrome de Russell-Silver a été associé à des changements de méthylation impliquant les gènes H19 et IGF2, qui sont situés les uns à côté des autres à 11p15. On pense que ces gènes sont impliqués dans la direction d'une croissance normale. Une perte de méthylation perturbe la régulation de ces gènes, ce qui entraîne une croissance lente et les autres caractéristiques de ce trouble..
+Des anomalies impliquant des gènes sur le chromosome 7 peuvent également provoquer le syndrome de Russell-Silver. Dans 7 à 10 % des cas, les gens héritent des deux copies du chromosome 7 de leur mère au lieu d'une copie de chaque parent. Ce phénomène est appelé disomie uniparentale maternelle (UPD). L'UPD maternelle fait que les gens ont deux copies actives de certains gènes imprimés et aucune copie active d'autres. Un déséquilibre de certains gènes paternels et maternels actifs sur le chromosome 7 sous-tend les signes et symptômes de la maladie.Chez environ 40% des personnes atteintes du syndrome de Russell-Silver, la cause de la maladie est inconnue. Il est probable que des changements impliquant des gènes imprimés sur des chromosomes autres que 7 et 11 jouent un rôle.
+L'hypométhylation de la région de contrôle 1 et 2 (gène H19) au niveau de situé 11p15,5 provoque une SSR chez 35 à 50 % des individus, et une disomie uniparentale maternelle  chromosome 7 humain. provoque une SRS chez 7 à 10 % des individus.
 Il y a un petit nombre de personnes atteintes de SSR qui ont des duplications, des suppressions ou des translocations impliquant les centres d'impression à 11p15,5 ou des duplications, des suppressions ou des translocations impliquant le chromosome 7.
 </t>
         </is>
@@ -549,11 +563,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Russell-Silver est un trouble de la croissance caractérisé par une croissance lente avant et après la naissance. Les bébés atteints de cette affection ont un faible poids à la naissance et ne parviennent souvent pas à grandir et à prendre du poids au rythme attendu (retard de croissance). La croissance de la tête est cependant normale, de sorte que la tête peut sembler inhabituellement grande par rapport au reste du corps. Les enfants atteints sont minces et ont un faible appétit, et certains développent des épisodes récurrents d'hypoglycémie à la suite de difficultés d'alimentation. Les adultes atteints du syndrome de Russell-Silver sont petits : la taille moyenne pour les hommes affectés est d'environ 151 centimètres et la taille moyenne pour les femmes touchées est d'environ 140 centimètres[4].
-De nombreux enfants atteints du syndrome de Russell-Silver ont un petit visage triangulaire avec des caractéristiques faciales distinctives, notamment un front proéminent, un menton étroit, une petite mâchoire et des coins de la bouche baissés. D'autres caractéristiques de ce trouble peuvent inclure une courbure inhabituelle du cinquième doigt (clinodactylie), une croissance asymétrique ou inégale de certaines parties du corps et des anomalies du système digestif. Le syndrome de Russell-Silver est également associé à un risque accru de retard de développement, de problèmes de parole et de langage et de troubles d'apprentissage[4].
-Le prévalence de ce syndrome pourrait atteindre 1 sur 16 000 naissances[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Russell-Silver est un trouble de la croissance caractérisé par une croissance lente avant et après la naissance. Les bébés atteints de cette affection ont un faible poids à la naissance et ne parviennent souvent pas à grandir et à prendre du poids au rythme attendu (retard de croissance). La croissance de la tête est cependant normale, de sorte que la tête peut sembler inhabituellement grande par rapport au reste du corps. Les enfants atteints sont minces et ont un faible appétit, et certains développent des épisodes récurrents d'hypoglycémie à la suite de difficultés d'alimentation. Les adultes atteints du syndrome de Russell-Silver sont petits : la taille moyenne pour les hommes affectés est d'environ 151 centimètres et la taille moyenne pour les femmes touchées est d'environ 140 centimètres.
+De nombreux enfants atteints du syndrome de Russell-Silver ont un petit visage triangulaire avec des caractéristiques faciales distinctives, notamment un front proéminent, un menton étroit, une petite mâchoire et des coins de la bouche baissés. D'autres caractéristiques de ce trouble peuvent inclure une courbure inhabituelle du cinquième doigt (clinodactylie), une croissance asymétrique ou inégale de certaines parties du corps et des anomalies du système digestif. Le syndrome de Russell-Silver est également associé à un risque accru de retard de développement, de problèmes de parole et de langage et de troubles d'apprentissage.
+Le prévalence de ce syndrome pourrait atteindre 1 sur 16 000 naissances
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Critères morphologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Contour du visage, vu de face, de forme triangulaire, avec des tempes larges se rétrécissant en un menton étroit.
@@ -619,16 +637,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Silver-Russell est une maladie génétiquement hétérogène ; le diagnostic clinique nécessite le respect de critères cliniques spécifiques décrits dans le système de notation clinique Netchine-Harbison (NH-CSS)[7]. Ce système de notation a été accepté comme méthode pour identifier les personnes qui devraient subir des examens complémentaires pour le diagnostic de SSR[8]
-Clinique
-Si un individu répond à quatre des six critères, le diagnostic clinique est suspecté et un test de confirmation moléculaire est justifié. Quelques rares individus répondant à trois des six critères ont eu une confirmation moléculaire positive pour le SSR.
-Diagnostic moléculaire
-Il faut rechercher une disomie uniparentale maternelle au niveau du chromosome 7 ou une régulation anormale de la transcription de deux régions soumis à empreinte sur le chromosome 11p15.5 : ICR1 et ICR2. La régulation peut être perturbée par de nombreux mécanismes.Il existe d'autres méthodes de diagnostic très élaboré si aucune de ses deux méthodes est concluantes.
-Environ 40 % des individus qui subissent des tests moléculaires ayant au moins 4 critères cliniques auront des résultats moléculaires négatives après avoir employé toutes les méthodes possibles. Pour les individus de ce groupe, un diagnostic clinique de SSR peut être établi si : deux des quatre signes cliniques identifiés sont des bosses frontales / frontales proéminentes et une macrocéphalie relative à la naissance ; et d'autres maladies génétiques ont été exclues[9].
-Gènes pouvant être impliqués dans ce syndrome
-Si l'analyse de méthylation des études 11p15.5 ICR1 / ICR2 et UPD7 est normale, un panel multigène qui comprend l'analyse de séquence d'IGF2, CDKN1C, PLAG1, HMGA2 et d'autres gènes peut révéler des anomaliess[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Silver-Russell est une maladie génétiquement hétérogène ; le diagnostic clinique nécessite le respect de critères cliniques spécifiques décrits dans le système de notation clinique Netchine-Harbison (NH-CSS). Ce système de notation a été accepté comme méthode pour identifier les personnes qui devraient subir des examens complémentaires pour le diagnostic de SSR
 </t>
         </is>
       </c>
@@ -654,10 +667,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Troubles génétiquement apparentés (alléliques)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si un individu répond à quatre des six critères, le diagnostic clinique est suspecté et un test de confirmation moléculaire est justifié. Quelques rares individus répondant à trois des six critères ont eu une confirmation moléculaire positive pour le SSR.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,12 +704,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Diagnostic différentiel</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il se pose devant tout retard de croissance intra-utérin ou de nanisme.
+          <t>Diagnostic moléculaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut rechercher une disomie uniparentale maternelle au niveau du chromosome 7 ou une régulation anormale de la transcription de deux régions soumis à empreinte sur le chromosome 11p15.5 : ICR1 et ICR2. La régulation peut être perturbée par de nombreux mécanismes.Il existe d'autres méthodes de diagnostic très élaboré si aucune de ses deux méthodes est concluantes.
+Environ 40 % des individus qui subissent des tests moléculaires ayant au moins 4 critères cliniques auront des résultats moléculaires négatives après avoir employé toutes les méthodes possibles. Pour les individus de ce groupe, un diagnostic clinique de SSR peut être établi si : deux des quatre signes cliniques identifiés sont des bosses frontales / frontales proéminentes et une macrocéphalie relative à la naissance ; et d'autres maladies génétiques ont été exclues.
 </t>
         </is>
       </c>
@@ -711,10 +742,114 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Diagnostic moléculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Gènes pouvant être impliqués dans ce syndrome</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si l'analyse de méthylation des études 11p15.5 ICR1 / ICR2 et UPD7 est normale, un panel multigène qui comprend l'analyse de séquence d'IGF2, CDKN1C, PLAG1, HMGA2 et d'autres gènes peut révéler des anomaliess.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Troubles génétiquement apparentés (alléliques)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se pose devant tout retard de croissance intra-utérin ou de nanisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des cas de syndrome de Russell-Silver sont sporadiques, ce qui signifie qu'ils surviennent chez des individus sans antécédents de trouble dans leur famille.
 Rarement, le syndrome de Russell-Silver affecte une famille. Dans certaines familles touchées, la maladie semble avoir un mode de transmission autosomique dominant. L'hérédité autosomique dominante signifie qu'une copie d'un changement génétique dans chaque cellule est suffisante pour provoquer le trouble. Dans d'autres familles, l'affection semble avoir un mode de transmission autosomique récessif. L'hérédité récessive autosomique signifie que les deux copies d'un gène sont modifiées dans chaque cellule. Les parents d'un individu ayant une maladie autosomique récessive portent chacun une copie du gène muté, mais ils ne présentent généralement pas de signes et de symptômes de la maladie.
@@ -723,96 +858,102 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Silver-Russell</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Silver-Russell</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Grossesse chez une femme atteinte de ce syndrome</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une grossesse spontanée avec diabète gestationnel et un accouchement sans problème ont été décrits chez une femme chinoise atteinte du syndrome de Silver-Russell[10].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Silver-Russell</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Silver-Russell</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une grossesse spontanée avec diabète gestationnel et un accouchement sans problème ont été décrits chez une femme chinoise atteinte du syndrome de Silver-Russell.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conseil génétique est très difficile en raison de l'hétérogénéité de syndrome.
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Silver-Russell</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Silver-Russell</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Silver-Russell</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Diagnostic prénatal</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si le SSR est due à une disomie uniparentale maternelle celle-ci peut être diagnostiquée avant la naissance par ponction de sang fœtal[9].
-Si une anomalie chromosomique causale (par exemple, une translocation déséquilibrée impliquant 11p15.5, une microdélétion paternelle ou une microduplication maternelle du chromosome 11p15.5 incluant CDKN1C) a été identifiée chez la mère, un diagnostic prénatal sur des cellules fœtales obtenu par ponction de sang fœtal ou l'amniocentèse est possible[9].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le SSR est due à une disomie uniparentale maternelle celle-ci peut être diagnostiquée avant la naissance par ponction de sang fœtal.
+Si une anomalie chromosomique causale (par exemple, une translocation déséquilibrée impliquant 11p15.5, une microdélétion paternelle ou une microduplication maternelle du chromosome 11p15.5 incluant CDKN1C) a été identifiée chez la mère, un diagnostic prénatal sur des cellules fœtales obtenu par ponction de sang fœtal ou l'amniocentèse est possible.
 </t>
         </is>
       </c>
